--- a/01_SENSOR_PART/03_BOM/CAMERA.xlsx
+++ b/01_SENSOR_PART/03_BOM/CAMERA.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Altium_Project\3_Camera_Board\NANORACK_V2_CAMERA_HW\03_BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Altium_Project\3_Camera_Board\NANORACK_V2_CAMERA_HW\01_SENSOR_PART\03_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6BC1B-AFCD-49E7-9EF8-A92203D75E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54576A5-0C4F-44F7-AE96-DE818FCF4362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{446A6DB9-ACBE-4199-9EE3-97069BC7C892}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{446A6DB9-ACBE-4199-9EE3-97069BC7C892}"/>
   </bookViews>
   <sheets>
     <sheet name="CAMERA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CAMERA!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">CAMERA!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
-  <si>
-    <t>Comment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>Description</t>
   </si>
@@ -80,9 +77,6 @@
     <t>C22, C32, C38, C44, C49, C53, C58, C62, C67, C71, C76, C80, C81, C82, C83, C84, C85, C86, C87, C88</t>
   </si>
   <si>
-    <t>0532611571</t>
-  </si>
-  <si>
     <t>Conn Shrouded Header (4 Sides) HDR 15 POS 1.25mm Solder RA Side Entry SMD PicoBladeâ„¢ T/R</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>U12, U13, U14, U15</t>
   </si>
   <si>
-    <t>SOT236</t>
-  </si>
-  <si>
     <t>DSC1001DL5-027.0000T</t>
   </si>
   <si>
@@ -191,24 +182,12 @@
     <t>OSCDFN250X200X89-4N</t>
   </si>
   <si>
-    <t>Manufacturer 1</t>
-  </si>
-  <si>
-    <t>Supplier 1</t>
-  </si>
-  <si>
-    <t>Supplier Part Number 1</t>
-  </si>
-  <si>
     <t>4.7 µF Molded Tantalum Capacitors 10 V 0603 (1608 Metric) 6Ohm @ 100kHz</t>
   </si>
   <si>
     <t>Vishay Sprague</t>
   </si>
   <si>
-    <t>Digikey</t>
-  </si>
-  <si>
     <t>TP8M475M010C</t>
   </si>
   <si>
@@ -245,15 +224,6 @@
     <t>Bourns Inc.</t>
   </si>
   <si>
-    <t>RC0402FR-0722RL</t>
-  </si>
-  <si>
-    <t>YAGEO</t>
-  </si>
-  <si>
-    <t>RES 22 OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
     <t>RES SMD 10K OHM 1% 1/16W 0402</t>
   </si>
   <si>
@@ -303,6 +273,51 @@
   </si>
   <si>
     <t>IC REG LINEAR 1.8V 500MA SOT23-5</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer P/N</t>
+  </si>
+  <si>
+    <t>RES SMD 22 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES_C_1608X60</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF22R0V</t>
+  </si>
+  <si>
+    <t>DF40C-24DP-0.4V(51)</t>
+  </si>
+  <si>
+    <t>CONN PLUG 24POS SMD GOLD</t>
+  </si>
+  <si>
+    <t>Hirose Electric Co Ltd</t>
+  </si>
+  <si>
+    <t>DF40C-24DS-0.4V(51)</t>
+  </si>
+  <si>
+    <t>CONN RCPT 24POS SMD GOLD</t>
+  </si>
+  <si>
+    <t>Check fp</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>SC-88</t>
   </si>
 </sst>
 </file>
@@ -318,21 +333,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -355,26 +364,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,490 +705,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4674C53-65C4-47C8-87FF-744344827D4B}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H3" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>532611571</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>532611571</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1">
+        <v>532611571</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="H7" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>47</v>
+      <c r="G19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
